--- a/data/sector_correlations/2016_intra.xlsx
+++ b/data/sector_correlations/2016_intra.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B41"/>
+  <dimension ref="A1:B39"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -448,401 +448,381 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Multi-Utilities(19)</t>
+          <t>Multi-Utilities(18)</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.5509003633650086</v>
+        <v>0.6011530979219659</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Electric Utilities(29)</t>
+          <t>Road &amp; Rail(22)</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.4940162184387162</v>
+        <v>0.555478110834445</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Road &amp; Rail(23)</t>
+          <t>Air Freight &amp; Logistics(11)</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.4921577212480971</v>
+        <v>0.5120315985335757</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Energy Equipment &amp; Services(34)</t>
+          <t>Electric Utilities(28)</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.4158140966909625</v>
+        <v>0.5111832501130005</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Metals &amp; Mining(95)</t>
+          <t>Banks(246)</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.4102716167767432</v>
+        <v>0.4914866227540425</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Air Freight &amp; Logistics(12)</t>
+          <t>Building Products(23)</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.4099911447386997</v>
+        <v>0.4817696952719114</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Banks(271)</t>
+          <t>Energy Equipment &amp; Services(32)</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.4031434284765747</v>
+        <v>0.4718498402254432</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Building Products(27)</t>
+          <t>Metals &amp; Mining(89)</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.3730556968435211</v>
+        <v>0.4316523242605258</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Machinery(93)</t>
+          <t>Machinery(85)</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0.3617790850219986</v>
+        <v>0.4152030506263252</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Blank Check / SPAC(32)</t>
+          <t>Marine(15)</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.3378791442298774</v>
+        <v>0.3878966859677347</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Gas Utilities(13)</t>
+          <t>Gas Utilities(12)</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0.3242540346079805</v>
+        <v>0.3704453840804315</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>Marine(16)</t>
+          <t>Trading Companies &amp; Distributors(25)</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0.3161723225057711</v>
+        <v>0.3654504162682767</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>Auto Components(21)</t>
+          <t>Thrifts &amp; Mortgage Finance(47)</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0.3055511741165613</v>
+        <v>0.3547728109197359</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>Trading Companies &amp; Distributors(28)</t>
+          <t>Water Utilities(12)</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>0.2874735367842094</v>
+        <v>0.3520959880163748</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>Chemicals(55)</t>
+          <t>Insurance(75)</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0.2749751744460667</v>
+        <v>0.3180148923140174</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>Insurance(80)</t>
+          <t>Auto Components(21)</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0.2687141794132467</v>
+        <v>0.3055511741165613</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>Thrifts &amp; Mortgage Finance(52)</t>
+          <t>Construction &amp; Engineering(20)</t>
         </is>
       </c>
       <c r="B18" t="n">
-        <v>0.249364625351163</v>
+        <v>0.3023106614107945</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>Life Sciences Tools &amp; Services(20)</t>
+          <t>Chemicals(51)</t>
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0.2410678463078059</v>
+        <v>0.2921011422361156</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>Shell Companies(18)</t>
+          <t>Life Sciences Tools &amp; Services(19)</t>
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0.2245027216507788</v>
+        <v>0.2631741957874983</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>Construction &amp; Engineering(23)</t>
+          <t>Specialty Retail(58)</t>
         </is>
       </c>
       <c r="B21" t="n">
-        <v>0.2059737909715613</v>
+        <v>0.2409116727380363</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>Specialty Retail(63)</t>
+          <t>Capital Markets(75)</t>
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0.2018511938933847</v>
+        <v>0.2380249774285201</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>Capital Markets(87)</t>
+          <t>Semiconductors &amp; Semiconductor Equipment(68)</t>
         </is>
       </c>
       <c r="B23" t="n">
-        <v>0.2012671696198591</v>
+        <v>0.2154474925683811</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>Professional Services(38)</t>
+          <t>Electrical Equipment(28)</t>
         </is>
       </c>
       <c r="B24" t="n">
-        <v>0.1895657395034808</v>
+        <v>0.1998757633264295</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>Electrical Equipment(31)</t>
+          <t>Commercial Services &amp; Supplies(52)</t>
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0.1885354891537094</v>
+        <v>0.1914991355344332</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>Commercial Services &amp; Supplies(57)</t>
+          <t>Professional Services(35)</t>
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0.1829840198681884</v>
+        <v>0.1896722757203425</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>Semiconductors &amp; Semiconductor Equipment(75)</t>
+          <t>Aerospace &amp; Defense(37)</t>
         </is>
       </c>
       <c r="B27" t="n">
-        <v>0.182141912730463</v>
+        <v>0.1828968893596951</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>Pharmaceuticals(56)</t>
+          <t>Hotels, Restaurants &amp; Leisure(50)</t>
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0.1765726291627331</v>
+        <v>0.1787714773155454</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>Consumer Finance(23)</t>
+          <t>Oil, Gas &amp; Consumable Fuels(122)</t>
         </is>
       </c>
       <c r="B29" t="n">
-        <v>0.1747778526743138</v>
+        <v>0.1783105191961414</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>Aerospace &amp; Defense(43)</t>
+          <t>Pharmaceuticals(48)</t>
         </is>
       </c>
       <c r="B30" t="n">
-        <v>0.1705266951055296</v>
+        <v>0.1745937056713801</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>Hotels, Restaurants &amp; Leisure(54)</t>
+          <t>Health Care Providers &amp; Services(46)</t>
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0.1693209277830944</v>
+        <v>0.1591865300992264</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>Oil, Gas &amp; Consumable Fuels(128)</t>
+          <t>Communications Equipment(45)</t>
         </is>
       </c>
       <c r="B32" t="n">
-        <v>0.1661328034386844</v>
+        <v>0.1519806083713743</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>Health Care Providers &amp; Services(48)</t>
+          <t>Media(42)</t>
         </is>
       </c>
       <c r="B33" t="n">
-        <v>0.1597293512526646</v>
+        <v>0.1391667115132491</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>Communications Equipment(50)</t>
+          <t>Household Durables(39)</t>
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0.1329563686107955</v>
+        <v>0.1349024315186565</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>Biotechnology(163)</t>
+          <t>Health Care Equipment &amp; Supplies(83)</t>
         </is>
       </c>
       <c r="B35" t="n">
-        <v>0.1263138778213371</v>
+        <v>0.1174498816020266</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>Health Care Equipment &amp; Supplies(87)</t>
+          <t>Biotechnology(126)</t>
         </is>
       </c>
       <c r="B36" t="n">
-        <v>0.1224528868042306</v>
+        <v>0.1129795663768614</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>Household Durables(43)</t>
+          <t>Food Products(44)</t>
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0.1224493789746365</v>
+        <v>0.1015430993239691</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>Media(47)</t>
+          <t>IT Services(52)</t>
         </is>
       </c>
       <c r="B38" t="n">
-        <v>0.1078801483163588</v>
+        <v>0.09920933229872297</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>Food Products(47)</t>
+          <t>Software(66)</t>
         </is>
       </c>
       <c r="B39" t="n">
-        <v>0.09966746846904595</v>
-      </c>
-    </row>
-    <row r="40">
-      <c r="A40" t="inlineStr">
-        <is>
-          <t>Software(70)</t>
-        </is>
-      </c>
-      <c r="B40" t="n">
-        <v>0.08422801464125973</v>
-      </c>
-    </row>
-    <row r="41">
-      <c r="A41" t="inlineStr">
-        <is>
-          <t>IT Services(58)</t>
-        </is>
-      </c>
-      <c r="B41" t="n">
-        <v>0.08367731216104075</v>
+        <v>0.08997060194791422</v>
       </c>
     </row>
   </sheetData>

--- a/data/sector_correlations/2016_intra.xlsx
+++ b/data/sector_correlations/2016_intra.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B39"/>
+  <dimension ref="A1:B40"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -588,240 +588,250 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>Insurance(75)</t>
+          <t>No Sector(375)</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0.3180148923140174</v>
+        <v>0.3283331669995279</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>Auto Components(21)</t>
+          <t>Insurance(75)</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0.3055511741165613</v>
+        <v>0.3180148923140174</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>Construction &amp; Engineering(20)</t>
+          <t>Auto Components(21)</t>
         </is>
       </c>
       <c r="B18" t="n">
-        <v>0.3023106614107945</v>
+        <v>0.3055511741165613</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>Chemicals(51)</t>
+          <t>Construction &amp; Engineering(20)</t>
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0.2921011422361156</v>
+        <v>0.3023106614107945</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>Life Sciences Tools &amp; Services(19)</t>
+          <t>Chemicals(51)</t>
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0.2631741957874983</v>
+        <v>0.2921011422361156</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>Specialty Retail(58)</t>
+          <t>Life Sciences Tools &amp; Services(19)</t>
         </is>
       </c>
       <c r="B21" t="n">
-        <v>0.2409116727380363</v>
+        <v>0.2631741957874983</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>Capital Markets(75)</t>
+          <t>Specialty Retail(58)</t>
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0.2380249774285201</v>
+        <v>0.2409116727380363</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>Semiconductors &amp; Semiconductor Equipment(68)</t>
+          <t>Capital Markets(75)</t>
         </is>
       </c>
       <c r="B23" t="n">
-        <v>0.2154474925683811</v>
+        <v>0.2380249774285201</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>Electrical Equipment(28)</t>
+          <t>Semiconductors &amp; Semiconductor Equipment(68)</t>
         </is>
       </c>
       <c r="B24" t="n">
-        <v>0.1998757633264295</v>
+        <v>0.2154474925683811</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>Commercial Services &amp; Supplies(52)</t>
+          <t>Electrical Equipment(28)</t>
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0.1914991355344332</v>
+        <v>0.1998757633264295</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>Professional Services(35)</t>
+          <t>Commercial Services &amp; Supplies(52)</t>
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0.1896722757203425</v>
+        <v>0.1914991355344332</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>Aerospace &amp; Defense(37)</t>
+          <t>Professional Services(35)</t>
         </is>
       </c>
       <c r="B27" t="n">
-        <v>0.1828968893596951</v>
+        <v>0.1896722757203425</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>Hotels, Restaurants &amp; Leisure(50)</t>
+          <t>Aerospace &amp; Defense(37)</t>
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0.1787714773155454</v>
+        <v>0.1828968893596951</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>Oil, Gas &amp; Consumable Fuels(122)</t>
+          <t>Hotels, Restaurants &amp; Leisure(50)</t>
         </is>
       </c>
       <c r="B29" t="n">
-        <v>0.1783105191961414</v>
+        <v>0.1787714773155454</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>Pharmaceuticals(48)</t>
+          <t>Oil, Gas &amp; Consumable Fuels(122)</t>
         </is>
       </c>
       <c r="B30" t="n">
-        <v>0.1745937056713801</v>
+        <v>0.1783105191961414</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>Health Care Providers &amp; Services(46)</t>
+          <t>Pharmaceuticals(48)</t>
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0.1591865300992264</v>
+        <v>0.1745937056713801</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>Communications Equipment(45)</t>
+          <t>Health Care Providers &amp; Services(46)</t>
         </is>
       </c>
       <c r="B32" t="n">
-        <v>0.1519806083713743</v>
+        <v>0.1591865300992264</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>Media(42)</t>
+          <t>Communications Equipment(45)</t>
         </is>
       </c>
       <c r="B33" t="n">
-        <v>0.1391667115132491</v>
+        <v>0.1519806083713743</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>Household Durables(39)</t>
+          <t>Media(42)</t>
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0.1349024315186565</v>
+        <v>0.1391667115132491</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>Health Care Equipment &amp; Supplies(83)</t>
+          <t>Household Durables(39)</t>
         </is>
       </c>
       <c r="B35" t="n">
-        <v>0.1174498816020266</v>
+        <v>0.1349024315186565</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>Biotechnology(126)</t>
+          <t>Health Care Equipment &amp; Supplies(83)</t>
         </is>
       </c>
       <c r="B36" t="n">
-        <v>0.1129795663768614</v>
+        <v>0.1174498816020266</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>Food Products(44)</t>
+          <t>Biotechnology(126)</t>
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0.1015430993239691</v>
+        <v>0.1129795663768614</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>IT Services(52)</t>
+          <t>Food Products(44)</t>
         </is>
       </c>
       <c r="B38" t="n">
-        <v>0.09920933229872297</v>
+        <v>0.1015430993239691</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
+          <t>IT Services(52)</t>
+        </is>
+      </c>
+      <c r="B39" t="n">
+        <v>0.09920933229872297</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="inlineStr">
+        <is>
           <t>Software(66)</t>
         </is>
       </c>
-      <c r="B39" t="n">
+      <c r="B40" t="n">
         <v>0.08997060194791422</v>
       </c>
     </row>

--- a/data/sector_correlations/2016_intra.xlsx
+++ b/data/sector_correlations/2016_intra.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B40"/>
+  <dimension ref="A1:B42"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -488,81 +488,81 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Banks(246)</t>
+          <t>Banks(251)</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.4914866227540425</v>
+        <v>0.4661726939731133</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Building Products(23)</t>
+          <t>Building Products(24)</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.4817696952719114</v>
+        <v>0.4224192450983748</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Energy Equipment &amp; Services(32)</t>
+          <t>Machinery(86)</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.4718498402254432</v>
+        <v>0.4185327478649988</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Metals &amp; Mining(89)</t>
+          <t>Marine(15)</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.4316523242605258</v>
+        <v>0.3878966859677347</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Machinery(85)</t>
+          <t>ETF(303)</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0.4152030506263252</v>
+        <v>0.3793054930628602</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Marine(15)</t>
+          <t>Gas Utilities(12)</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.3878966859677347</v>
+        <v>0.3704453840804315</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Gas Utilities(12)</t>
+          <t>Trading Companies &amp; Distributors(25)</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0.3704453840804315</v>
+        <v>0.3654504162682767</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>Trading Companies &amp; Distributors(25)</t>
+          <t>Metals &amp; Mining(106)</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0.3654504162682767</v>
+        <v>0.3584045941502245</v>
       </c>
     </row>
     <row r="14">
@@ -578,21 +578,21 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>Water Utilities(12)</t>
+          <t>Energy Equipment &amp; Services(38)</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>0.3520959880163748</v>
+        <v>0.3434119444041198</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>No Sector(375)</t>
+          <t>Equity Real Estate Investment Trusts ...(98)</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0.3283331669995279</v>
+        <v>0.3194618528503097</v>
       </c>
     </row>
     <row r="17">
@@ -608,231 +608,251 @@
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>Auto Components(21)</t>
+          <t>Water Utilities(13)</t>
         </is>
       </c>
       <c r="B18" t="n">
-        <v>0.3055511741165613</v>
+        <v>0.3159640804598254</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>Construction &amp; Engineering(20)</t>
+          <t>Auto Components(21)</t>
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0.3023106614107945</v>
+        <v>0.3055511741165613</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>Chemicals(51)</t>
+          <t>Chemicals(52)</t>
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0.2921011422361156</v>
+        <v>0.2955594717296125</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>Life Sciences Tools &amp; Services(19)</t>
+          <t>Construction &amp; Engineering(21)</t>
         </is>
       </c>
       <c r="B21" t="n">
-        <v>0.2631741957874983</v>
+        <v>0.2795584993604937</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>Specialty Retail(58)</t>
+          <t>Life Sciences Tools &amp; Services(19)</t>
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0.2409116727380363</v>
+        <v>0.2631741957874983</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>Capital Markets(75)</t>
+          <t>Specialty Retail(59)</t>
         </is>
       </c>
       <c r="B23" t="n">
-        <v>0.2380249774285201</v>
+        <v>0.2332080711894651</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>Semiconductors &amp; Semiconductor Equipment(68)</t>
+          <t>Capital Markets(76)</t>
         </is>
       </c>
       <c r="B24" t="n">
-        <v>0.2154474925683811</v>
+        <v>0.2288803717849751</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>Electrical Equipment(28)</t>
+          <t>Semiconductors &amp; Semiconductor Equipment(70)</t>
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0.1998757633264295</v>
+        <v>0.2109124772980088</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>Commercial Services &amp; Supplies(52)</t>
+          <t>Electrical Equipment(28)</t>
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0.1914991355344332</v>
+        <v>0.1998757633264295</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>Professional Services(35)</t>
+          <t>Commercial Services &amp; Supplies(52)</t>
         </is>
       </c>
       <c r="B27" t="n">
-        <v>0.1896722757203425</v>
+        <v>0.1914991355344332</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>Aerospace &amp; Defense(37)</t>
+          <t>Professional Services(35)</t>
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0.1828968893596951</v>
+        <v>0.1896722757203425</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>Hotels, Restaurants &amp; Leisure(50)</t>
+          <t>Electronic Equipment, Instruments &amp; C...(78)</t>
         </is>
       </c>
       <c r="B29" t="n">
-        <v>0.1787714773155454</v>
+        <v>0.1835585479573281</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>Oil, Gas &amp; Consumable Fuels(122)</t>
+          <t>Aerospace &amp; Defense(37)</t>
         </is>
       </c>
       <c r="B30" t="n">
-        <v>0.1783105191961414</v>
+        <v>0.1828968893596951</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>Pharmaceuticals(48)</t>
+          <t>Hotels, Restaurants &amp; Leisure(51)</t>
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0.1745937056713801</v>
+        <v>0.1816312826567509</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>Health Care Providers &amp; Services(46)</t>
+          <t>Oil, Gas &amp; Consumable Fuels(125)</t>
         </is>
       </c>
       <c r="B32" t="n">
-        <v>0.1591865300992264</v>
+        <v>0.178122319223604</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>Communications Equipment(45)</t>
+          <t>Health Care Providers &amp; Services(47)</t>
         </is>
       </c>
       <c r="B33" t="n">
-        <v>0.1519806083713743</v>
+        <v>0.1614771819879285</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>Media(42)</t>
+          <t>Pharmaceuticals(53)</t>
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0.1391667115132491</v>
+        <v>0.1528481640262463</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>Household Durables(39)</t>
+          <t>Communications Equipment(45)</t>
         </is>
       </c>
       <c r="B35" t="n">
-        <v>0.1349024315186565</v>
+        <v>0.1519806083713743</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>Health Care Equipment &amp; Supplies(83)</t>
+          <t>Media(42)</t>
         </is>
       </c>
       <c r="B36" t="n">
-        <v>0.1174498816020266</v>
+        <v>0.1391667115132491</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>Biotechnology(126)</t>
+          <t>Household Durables(39)</t>
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0.1129795663768614</v>
+        <v>0.1349024315186565</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>Food Products(44)</t>
+          <t>Health Care Equipment &amp; Supplies(86)</t>
         </is>
       </c>
       <c r="B38" t="n">
-        <v>0.1015430993239691</v>
+        <v>0.1203728078300313</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>IT Services(52)</t>
+          <t>Biotechnology(128)</t>
         </is>
       </c>
       <c r="B39" t="n">
-        <v>0.09920933229872297</v>
+        <v>0.1111411566930368</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>Software(66)</t>
+          <t>IT Services(52)</t>
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0.08997060194791422</v>
+        <v>0.09920933229872297</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>Food Products(46)</t>
+        </is>
+      </c>
+      <c r="B41" t="n">
+        <v>0.08887282488690043</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="inlineStr">
+        <is>
+          <t>Software(70)</t>
+        </is>
+      </c>
+      <c r="B42" t="n">
+        <v>0.07670625032558819</v>
       </c>
     </row>
   </sheetData>
